--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3092586.168257552</v>
+        <v>3199815.609655641</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8293347.962151906</v>
+        <v>8306796.40753155</v>
       </c>
     </row>
     <row r="11">
@@ -674,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>114.1460214218932</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>166.5275467957312</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>198.6076632291042</v>
       </c>
       <c r="U4" t="n">
-        <v>191.9598783564021</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>2.264474711071196</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.5901478022483</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>111.3057074754898</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>83.92159280918567</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>57.8157898639742</v>
+        <v>108.8424278474232</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>98.98102224012298</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>79.54367350501137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187851</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.3661862535883</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503976</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701366</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>144.719340605582</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.295034370327</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>129.5380597272483</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>108.2950343703266</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>142.6584215897761</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>124.936238874645</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2950,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>34.21058558914873</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>158.2465685970616</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>25.52471385612597</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3439,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>55.52079624060383</v>
+        <v>125.2851635392055</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576156</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>4.019807611472022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3907,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.6789846282036</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>41.74133133758713</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2322.34110938936</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2322.34110938936</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>1991.278222045789</v>
+        <v>2060.684836304439</v>
       </c>
       <c r="W2" t="n">
-        <v>1638.509566775675</v>
+        <v>1707.916181034325</v>
       </c>
       <c r="X2" t="n">
-        <v>1638.509566775675</v>
+        <v>1334.450422773245</v>
       </c>
       <c r="Y2" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974335</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009994</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.154053606939</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1333.24891234856</v>
       </c>
       <c r="U4" t="n">
-        <v>1245.91850520769</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V4" t="n">
-        <v>991.2340170018028</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W4" t="n">
-        <v>701.8168469648423</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X4" t="n">
-        <v>473.8272960668249</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1934.208022973022</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866151</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605071</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="Y5" t="n">
-        <v>2320.807863037144</v>
+        <v>1232.405431550704</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.6774975139006</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1524.016112523498</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1524.016112523498</v>
       </c>
       <c r="V7" t="n">
-        <v>1842.525262422648</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="W7" t="n">
-        <v>1553.108092385688</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="X7" t="n">
-        <v>1325.11854148767</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="Y7" t="n">
-        <v>1104.32596234414</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1550.959102576163</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.344253709365</v>
+        <v>2327.698274616097</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.344253709365</v>
+        <v>2327.698274616097</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1937.558942640285</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>382.3382468580007</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>213.4020639300938</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408147</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>644.3338566427974</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>563.9867116882405</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168595</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,40 +5105,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>315.9123021921471</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,28 +5266,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,22 +5296,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033213</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5431,55 +5433,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2233.736227705813</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1944.661001050011</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5749,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,19 +5764,19 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>209.2531439449487</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6312,19 +6314,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>991.7436897307817</v>
+        <v>615.644930552589</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1394.184733704551</v>
+        <v>1018.085974526359</v>
       </c>
       <c r="Y28" t="n">
-        <v>1173.392154561021</v>
+        <v>797.2933953828287</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>251.562654109227</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249857</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449245</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>377.6556127449245</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>377.6556127449245</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>210.4595134598044</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,28 +6721,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
         <v>1896.176478190825</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6886,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="35">
@@ -6932,10 +6934,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6977,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122182</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G37" t="n">
-        <v>149.8982754122182</v>
+        <v>302.45403664168</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,7 +7201,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7491,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.9745311434712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C43" t="n">
-        <v>701.0383482155643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>550.9217088032285</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>403.0086152208354</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>256.118667722925</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052219</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.405126015258</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.415575117241</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.622995973711</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="44">
@@ -7625,40 +7627,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>3081.170977615668</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>2906.717948334541</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>2757.78353867329</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>2598.546083667834</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>2452.011525694719</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>2316.252859740627</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>2231.588527385793</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>2233.35591459056</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>2383.002557118215</v>
       </c>
       <c r="K45" t="n">
-        <v>2381.235169913446</v>
+        <v>2716.927329289435</v>
       </c>
       <c r="L45" t="n">
-        <v>2854.44064873475</v>
+        <v>3212.252935505194</v>
       </c>
       <c r="M45" t="n">
-        <v>2854.44064873475</v>
+        <v>3212.252935505194</v>
       </c>
       <c r="N45" t="n">
-        <v>3482.038612289356</v>
+        <v>3715.30027266424</v>
       </c>
       <c r="O45" t="n">
-        <v>4033.948342528643</v>
+        <v>4267.210002903527</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>4572.622366301208</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>4382.415660022982</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>4154.387578566167</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>3919.235470334424</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>3457.14661340069</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>3249.386314635736</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876688</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>430.7826650753331</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E46" t="n">
-        <v>282.8695714929399</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F46" t="n">
-        <v>135.9796239950296</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G46" t="n">
-        <v>135.9796239950296</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186.4490126143845</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9650,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.465793928349</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823024</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>72.68610972170626</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>107.2784330767823</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>50.29392045468902</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>37.12601365260463</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>24.58839950885172</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>106.0841272570752</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>127.9379057921825</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>84.77391660562006</v>
+        <v>15.00954930701842</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>144.5956654067403</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25795,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>30.95754073885467</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>98.55338150863676</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>732861.1892126809</v>
+        <v>732861.189212681</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>725730.876211396</v>
+        <v>732861.1892126809</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>725730.876211396</v>
+        <v>732861.1892126809</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>713572.6023089032</v>
+        <v>713572.6023089034</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>713572.6023089032</v>
+        <v>713572.6023089034</v>
       </c>
     </row>
     <row r="9">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312481</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312478</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287552</v>
@@ -26332,28 +26334,28 @@
         <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287549</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="O2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287557</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121056</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.204585065501445e-11</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,37 +26420,37 @@
         <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>87304.34719808327</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>87304.34719808328</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426732056</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731893</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731949</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426731942</v>
       </c>
       <c r="J4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="K4" t="n">
-        <v>8117.312426732036</v>
-      </c>
       <c r="L4" t="n">
-        <v>8117.312426732026</v>
+        <v>8117.312426731984</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-623596.0076463807</v>
+        <v>-623596.0076463803</v>
       </c>
       <c r="C6" t="n">
-        <v>319734.5192596659</v>
+        <v>491155.7759295398</v>
       </c>
       <c r="D6" t="n">
-        <v>523173.2608717713</v>
+        <v>491155.7759295397</v>
       </c>
       <c r="E6" t="n">
-        <v>271600.9706707611</v>
+        <v>89527.99085356992</v>
       </c>
       <c r="F6" t="n">
+        <v>597013.4324781165</v>
+      </c>
+      <c r="G6" t="n">
         <v>597013.4324781164</v>
       </c>
-      <c r="G6" t="n">
-        <v>597013.4324781162</v>
-      </c>
       <c r="H6" t="n">
+        <v>597013.4324781166</v>
+      </c>
+      <c r="I6" t="n">
+        <v>597013.4324781164</v>
+      </c>
+      <c r="J6" t="n">
+        <v>429408.2546681336</v>
+      </c>
+      <c r="K6" t="n">
+        <v>597013.4324781166</v>
+      </c>
+      <c r="L6" t="n">
+        <v>597013.4324781161</v>
+      </c>
+      <c r="M6" t="n">
+        <v>464406.1387491897</v>
+      </c>
+      <c r="N6" t="n">
+        <v>597013.4324781164</v>
+      </c>
+      <c r="O6" t="n">
         <v>597013.4324781165</v>
       </c>
-      <c r="I6" t="n">
-        <v>597013.4324781159</v>
-      </c>
-      <c r="J6" t="n">
-        <v>429408.2546681339</v>
-      </c>
-      <c r="K6" t="n">
-        <v>547903.3397720621</v>
-      </c>
-      <c r="L6" t="n">
-        <v>597013.4324781165</v>
-      </c>
-      <c r="M6" t="n">
-        <v>511958.4045426043</v>
-      </c>
-      <c r="N6" t="n">
-        <v>597013.4324781162</v>
-      </c>
-      <c r="O6" t="n">
-        <v>597013.432478116</v>
-      </c>
       <c r="P6" t="n">
-        <v>597013.4324781162</v>
+        <v>597013.4324781166</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.505731331876806e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.505731331876806e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.505731331876806e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26926,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.505731331876806e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757587</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.910608224135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.505731331876806e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>92.51216355834055</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>161.2247116744037</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>22.14103276810769</v>
       </c>
       <c r="U4" t="n">
-        <v>94.26727576479854</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>380.4693669524094</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>219.6477908538053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>109.4429885217222</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>168.2160505146423</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>291.4251788534388</v>
+        <v>240.3985408699898</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>80.85095794181431</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>139.0409798470834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.505731331876806e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.505731331876806e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.505731331876806e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.505731331876806e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.505731331876806e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.505731331876806e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.505731331876806e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.505731331876806e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.505731331876806e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.505731331876806e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.505731331876806e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.505731331876806e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.505731331876806e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.505731331876806e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28579,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29749,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>6.505731331876806e-14</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29761,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.505731331876806e-14</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29809,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>6.505731331876806e-14</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>579.5299594447138</v>
+        <v>211.7351844430261</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954396</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009852</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209193</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532626</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33032,31 +33034,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078237</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>307.4654529393634</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,25 +33496,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N33" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M42" t="n">
-        <v>210.3948924365567</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,22 +34444,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>616.5397119226051</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763091</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34699,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>553.3803448964251</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>440.9755796648395</v>
+        <v>73.1808046631519</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121063</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>59.9905895955218</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410451</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312443</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N33" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37622,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M42" t="n">
-        <v>68.26085851453838</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>477.9853321427309</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>508.1286233929758</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3199815.609655641</v>
+        <v>3195678.452405489</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8306796.40753155</v>
+        <v>8306796.407531549</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>253.2373238967256</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>166.5275467957312</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>66.40055121331473</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>198.6076632291042</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.264474711071196</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>270.8416991175617</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>111.3057074754898</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>108.8424278474232</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>196.699784115679</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.98102224012298</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110072</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>120.7871326503976</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701366</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>144.719340605582</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.295034370327</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>185.3892167411514</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>33.01627976944155</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>129.5380597272483</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>124.936238874645</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>158.2465685970616</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>125.2851635392055</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>120.7871326503968</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>35.41770597126702</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>121.8000472740347</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.3110907974335</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974335</v>
+        <v>1136.079510584979</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974335</v>
+        <v>777.8138119782286</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>392.0255593799844</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>385.0800586307809</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>373.4157123954739</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,7 +4330,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2060.684836304439</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>1707.916181034325</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X2" t="n">
-        <v>1334.450422773245</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y2" t="n">
-        <v>944.3110907974335</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>143.6627691908469</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919906</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800311</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>224.1731970904428</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1333.24891234856</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1044.130574852398</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>789.4460866465112</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>500.0289166095505</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>272.0393657115332</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.24678656800311</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1230.118083357703</v>
+        <v>1449.50507480484</v>
       </c>
       <c r="C5" t="n">
-        <v>1230.118083357703</v>
+        <v>1080.542557864428</v>
       </c>
       <c r="D5" t="n">
-        <v>1230.118083357703</v>
+        <v>722.2768592576774</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>336.4886066594332</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1622.544763526516</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>1622.544763526516</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1232.405431550704</v>
+        <v>1836.104914868961</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4649,7 +4649,7 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
         <v>909.2465818694943</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1524.016112523498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1524.016112523498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1269.331624317611</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1269.331624317611</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1269.331624317611</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1550.959102576163</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>1181.996585635751</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>1181.996585635751</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.698274616097</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.698274616097</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y8" t="n">
-        <v>1937.558942640285</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>292.9776840319557</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>142.86104461962</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.45656917648</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y10" t="n">
-        <v>1187.66399003295</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186992</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427008</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793926</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2223.769289033213</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2233.736227705813</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1944.661001050011</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V16" t="n">
-        <v>1689.976512844124</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1400.559342807163</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1172.569791909146</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>951.777212765616</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5746,22 +5746,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5770,10 +5770,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>376.4492432300688</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>376.4492432300688</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>376.4492432300688</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>209.2531439449487</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,7 +6001,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>631.7012443408905</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1018.085974526359</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>797.2933953828287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,16 +6460,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2104.263230450254</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,22 +6782,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892232</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>414.4022433768874</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>266.4891497944943</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7031,13 +7031,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>302.45403664168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>302.45403664168</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,10 +7162,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7311,19 +7311,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>215.8238677453423</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7393,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2411.187623003223</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,40 +7627,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.35591459056</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118215</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289435</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>3212.252935505194</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3212.252935505194</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3715.30027266424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4267.210002903527</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>390.823249958218</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>240.7066105458823</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458823</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>30.36925650589448</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111057</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>46.45968844823024</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>72.68610972170626</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.2291039219418</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>107.2784330767823</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.29392045468902</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>100.7734165143922</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>127.9379057921825</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.9994244361429</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>15.00954930701842</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>24.63391537253449</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>30.95754073885467</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>45.44677382459312</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>65.33133491134419</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>713572.6023089034</v>
+        <v>713572.6023089032</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>713572.6023089034</v>
+        <v>713572.6023089032</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>713572.6023089034</v>
+        <v>713572.6023089032</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>713572.6023089034</v>
+        <v>713572.6023089032</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287552</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287548</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245454</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.204585065501445e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,31 +26423,31 @@
         <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426732012</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731893</v>
+        <v>8117.312426732025</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731949</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731942</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426732028</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-623596.0076463803</v>
+        <v>-623596.0076463802</v>
       </c>
       <c r="C6" t="n">
-        <v>491155.7759295398</v>
+        <v>491155.77592954</v>
       </c>
       <c r="D6" t="n">
-        <v>491155.7759295397</v>
+        <v>491155.7759295391</v>
       </c>
       <c r="E6" t="n">
-        <v>89527.99085356992</v>
+        <v>89180.61159921411</v>
       </c>
       <c r="F6" t="n">
-        <v>597013.4324781165</v>
+        <v>596666.0532237591</v>
       </c>
       <c r="G6" t="n">
-        <v>597013.4324781164</v>
+        <v>596666.0532237596</v>
       </c>
       <c r="H6" t="n">
-        <v>597013.4324781166</v>
+        <v>596666.0532237595</v>
       </c>
       <c r="I6" t="n">
-        <v>597013.4324781164</v>
+        <v>596666.0532237593</v>
       </c>
       <c r="J6" t="n">
-        <v>429408.2546681336</v>
+        <v>429060.875413777</v>
       </c>
       <c r="K6" t="n">
-        <v>597013.4324781166</v>
+        <v>596666.0532237596</v>
       </c>
       <c r="L6" t="n">
-        <v>597013.4324781161</v>
+        <v>596666.0532237588</v>
       </c>
       <c r="M6" t="n">
-        <v>464406.1387491897</v>
+        <v>464058.759494833</v>
       </c>
       <c r="N6" t="n">
-        <v>597013.4324781164</v>
+        <v>596666.0532237596</v>
       </c>
       <c r="O6" t="n">
-        <v>597013.4324781165</v>
+        <v>596666.0532237596</v>
       </c>
       <c r="P6" t="n">
-        <v>597013.4324781166</v>
+        <v>596666.0532237596</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,16 +26795,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224135</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>47.78122866567981</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>161.2247116744037</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>80.85095794181412</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>22.14103276810769</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>380.4693669524094</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>136.0343466241497</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>109.4429885217222</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>240.3985408699898</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>173.03131656279</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80.85095794181431</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>55.73584717546845</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.505731331876806e-14</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>-6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-6.505731331876806e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29811,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>6.505731331876806e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>211.7351844430261</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>193.964997009852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209193</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M21" t="n">
-        <v>169.2687847673334</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>602.8420149078237</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,25 +33502,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>639.4703354763091</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>93.34947739681193</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
@@ -34786,22 +34786,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419603</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>73.1808046631519</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>59.9905895955218</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410451</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M21" t="n">
-        <v>27.13475084531504</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>471.5003028244903</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>508.1286233929758</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3195678.452405489</v>
+        <v>3197438.982708273</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>318.1437649779772</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -676,10 +676,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>253.2373238967256</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>66.40055121331473</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472227</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>270.8416991175617</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>192.241575208218</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>66.40055121331493</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>171.1971464172148</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>163.5820951301549</v>
       </c>
       <c r="X8" t="n">
-        <v>196.699784115679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110072</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>23.94563726208663</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>119.456671712837</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>185.3892167411514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>206.7582264966179</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188276</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>133.1319933510085</v>
       </c>
       <c r="F46" t="n">
-        <v>80.08971311158706</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1505.042027525391</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="C2" t="n">
-        <v>1136.079510584979</v>
+        <v>749.4796705208573</v>
       </c>
       <c r="D2" t="n">
-        <v>777.8138119782286</v>
+        <v>391.2139719141068</v>
       </c>
       <c r="E2" t="n">
-        <v>392.0255593799844</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F2" t="n">
-        <v>385.0800586307809</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>373.4157123954739</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>143.6627691908469</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1006.01552520271</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>837.0793422748035</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>686.9627028624677</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>539.0496092800746</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>392.1596617821642</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>224.1731970904428</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4530,10 +4530,10 @@
         <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>1408.45656917648</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>1187.66399003295</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1449.50507480484</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="C5" t="n">
-        <v>1080.542557864428</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>722.2768592576774</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>336.4886066594332</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
         <v>795.755353087292</v>
@@ -4579,40 +4579,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>2368.155919098926</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868961</v>
+        <v>1994.690160837846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1836.104914868961</v>
+        <v>1604.550828862034</v>
       </c>
     </row>
     <row r="6">
@@ -4640,25 +4640,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>1006.015525202711</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>837.0793422748037</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>686.9627028624679</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>539.0496092800748</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>392.1596617821644</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>224.173197090443</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W7" t="n">
-        <v>1463.519709552058</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1246.899958573734</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2397.104888874747</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>2023.639130613667</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1633.499798637855</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
         <v>1659.793729425659</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598626</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319557</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D10" t="n">
-        <v>142.86104461962</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4971,7 +4971,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>1612.258607688552</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336325</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901023</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5068,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,16 +5129,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1567.722549094265</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1278.305379057304</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1050.315828159287</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>554.5813165460164</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>385.6451336181095</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>957.0223605197863</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>736.2297813762561</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5837,10 +5837,10 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6241,13 +6241,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.6461798836013</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C46" t="n">
-        <v>565.7099969556945</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D46" t="n">
-        <v>565.7099969556945</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E46" t="n">
-        <v>565.7099969556945</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>30.36925650589448</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>193.3273467878356</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>54.95314511566431</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>132.680971610991</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>46.45968844823102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>45.37941682721009</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="F46" t="n">
-        <v>65.33133491134419</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>713572.6023089032</v>
+        <v>713572.6023089034</v>
       </c>
     </row>
     <row r="11">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="F2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287552</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287549</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287548</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287556</v>
@@ -26352,7 +26352,7 @@
         <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.10570385408937e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245454</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618637</v>
@@ -26426,10 +26426,10 @@
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426732012</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426732025</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
@@ -26441,10 +26441,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426732028</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-623596.0076463802</v>
+        <v>-623596.00764638</v>
       </c>
       <c r="C6" t="n">
-        <v>491155.77592954</v>
+        <v>491155.7759295389</v>
       </c>
       <c r="D6" t="n">
-        <v>491155.7759295391</v>
+        <v>491155.7759295394</v>
       </c>
       <c r="E6" t="n">
-        <v>89180.61159921411</v>
+        <v>89493.25292813484</v>
       </c>
       <c r="F6" t="n">
-        <v>596666.0532237591</v>
+        <v>596978.6945526808</v>
       </c>
       <c r="G6" t="n">
-        <v>596666.0532237596</v>
+        <v>596978.6945526804</v>
       </c>
       <c r="H6" t="n">
-        <v>596666.0532237595</v>
+        <v>596978.6945526809</v>
       </c>
       <c r="I6" t="n">
-        <v>596666.0532237593</v>
+        <v>596978.6945526806</v>
       </c>
       <c r="J6" t="n">
-        <v>429060.875413777</v>
+        <v>429373.5167426976</v>
       </c>
       <c r="K6" t="n">
-        <v>596666.0532237596</v>
+        <v>596978.6945526808</v>
       </c>
       <c r="L6" t="n">
-        <v>596666.0532237588</v>
+        <v>596978.6945526809</v>
       </c>
       <c r="M6" t="n">
-        <v>464058.759494833</v>
+        <v>464371.4008237541</v>
       </c>
       <c r="N6" t="n">
-        <v>596666.0532237596</v>
+        <v>596978.6945526809</v>
       </c>
       <c r="O6" t="n">
-        <v>596666.0532237596</v>
+        <v>596978.6945526807</v>
       </c>
       <c r="P6" t="n">
-        <v>596666.0532237596</v>
+        <v>596978.6945526809</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241342</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>63.78660509428454</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>47.78122866567981</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>80.85095794181412</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>80.85095794181444</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>136.0343466241497</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>156.999393509195</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>80.85095794181392</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>115.3258519193762</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>185.6588735872581</v>
       </c>
       <c r="X8" t="n">
-        <v>173.03131656279</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546845</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,10 +28070,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>262.5773610745044</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31557,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31606,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31618,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982898</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>230.9747494877451</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32557,13 +32557,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33672,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>93.34947739681193</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>528.7520287839585</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>446.1502447085383</v>
       </c>
       <c r="O9" t="n">
         <v>335.4246819961231</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>302.0934576762715</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -36205,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36612,7 +36612,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
